--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F5AB9-99E3-472A-8AA5-084532E3B25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92E1BC-3B0C-44DE-B12B-626BCFE442A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela 5: Complexidade Operacional e Índice de Legibilidade Nota </t>
+  </si>
+  <si>
+    <t>Crosstable</t>
   </si>
 </sst>
 </file>
@@ -139,11 +145,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,6 +314,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -826,7 +835,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,10 +985,13 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
+      <c r="A16" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="7"/>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92E1BC-3B0C-44DE-B12B-626BCFE442A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A204C-7CCB-4DB8-907E-1BDEA020E891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
     <sheet name="Reuniões" sheetId="2" r:id="rId2"/>
     <sheet name="atividades realizadas" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -119,10 +120,237 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabela 5: Complexidade Operacional e Índice de Legibilidade Nota </t>
-  </si>
-  <si>
     <t>Crosstable</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 6: Relação de Tempo e listagem na B3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) e índice de legibilidade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 7: Relação de Extensão do disclousere (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  e IL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 8: Relação de Governança (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) e iL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Binária</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 9: Setor Regulamenta e Não Regulamentado (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RegNreg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Binária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e índice de legibilidade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 10: Negociação na Bolsa de Valores (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Binária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e índice de legibilidade</t>
+    </r>
+  </si>
+  <si>
+    <t>Definir a base de dados final do modelo</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 5: Complexidade Operacional (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Complex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Índice de Legibilidade Nota </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não paramétrico</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -132,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +428,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +455,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +556,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -832,17 +1076,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="11"/>
+    <col min="3" max="3" width="20.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -986,57 +1230,112 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>15</v>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>16</v>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>17</v>
+      <c r="C20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9"/>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C92BC0-226C-4F24-A58F-5EC211BDFEC3}">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2008</v>
+      </c>
+      <c r="C1">
+        <v>2009</v>
+      </c>
+      <c r="D1">
+        <v>2010</v>
+      </c>
+      <c r="E1">
+        <v>2011</v>
+      </c>
+      <c r="F1">
+        <v>2012</v>
+      </c>
+      <c r="G1">
+        <v>2013</v>
+      </c>
+      <c r="H1">
+        <v>2014</v>
+      </c>
+      <c r="I1">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A204C-7CCB-4DB8-907E-1BDEA020E891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA4C51-6474-4C24-9C48-5F48E570A3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -351,6 +351,22 @@
       </rPr>
       <t>não paramétrico</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Teste não paramétrico ?</t>
+  </si>
+  <si>
+    <t>2010 - 2018</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1102,7 @@
   <cols>
     <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1226,7 +1242,9 @@
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
@@ -1264,7 +1282,7 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1273,7 +1291,7 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA4C51-6474-4C24-9C48-5F48E570A3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC133D-2ACE-4255-813F-D19EC064799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -298,9 +298,6 @@
       </rPr>
       <t xml:space="preserve"> e índice de legibilidade</t>
     </r>
-  </si>
-  <si>
-    <t>Definir a base de dados final do modelo</t>
   </si>
   <si>
     <r>
@@ -491,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -571,9 +568,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1108,7 @@
     <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1243,73 +1249,62 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="D20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC133D-2ACE-4255-813F-D19EC064799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C2E51-8A97-4423-8B3F-5C7E7EAAE9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>2010 - 2018</t>
+  </si>
+  <si>
+    <t>Tabela 7: Setor e IL</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,26 +1277,22 @@
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
+      <c r="A19" s="33" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="11" t="s">
@@ -1301,10 +1300,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,10 +1325,13 @@
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1">

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C2E51-8A97-4423-8B3F-5C7E7EAAE9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE13970-D163-40C3-8C78-58B631AC58D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32595" yWindow="2835" windowWidth="16050" windowHeight="8055" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE13970-D163-40C3-8C78-58B631AC58D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D791259-2EA9-4DCD-B7B3-1377D60FBAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="2835" windowWidth="16050" windowHeight="8055" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29175" yWindow="1455" windowWidth="23040" windowHeight="9915" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -168,49 +168,6 @@
         <family val="2"/>
       </rPr>
       <t>)  e IL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tabela 8: Relação de Governança (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) e iL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Binária</t>
     </r>
   </si>
   <si>
@@ -367,6 +324,43 @@
   </si>
   <si>
     <t>Tabela 7: Setor e IL</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 8: Relação de Governança (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) e iL -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Binária</t>
+    </r>
+  </si>
+  <si>
+    <t>Verificar se o indice de legibilidade das notas explicativas tem se alterado ao longo do tempo por assunto (23)</t>
   </si>
 </sst>
 </file>
@@ -1102,13 +1096,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -1252,12 +1246,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="11" t="s">
@@ -1278,41 +1272,40 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="A23" s="34" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D791259-2EA9-4DCD-B7B3-1377D60FBAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034431E-DE77-4A3C-A056-8E46D0C604C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="1455" windowWidth="23040" windowHeight="9915" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="1950" windowWidth="23040" windowHeight="9915" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -148,30 +148,6 @@
   </si>
   <si>
     <r>
-      <t>Tabela 7: Relação de Extensão do disclousere (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)  e IL</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Tabela 9: Setor Regulamenta e Não Regulamentado (</t>
     </r>
     <r>
@@ -361,6 +337,30 @@
   </si>
   <si>
     <t>Verificar se o indice de legibilidade das notas explicativas tem se alterado ao longo do tempo por assunto (23)</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 7: Relação de Extensão do disclousere (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) - grupos de media e IL</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -565,17 +571,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,7 +1103,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,12 +1252,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>33</v>
+      <c r="A16" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="11" t="s">
@@ -1259,52 +1265,52 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>30</v>
+      <c r="A18" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>31</v>
+      <c r="A21" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>32</v>
+      <c r="A22" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>39</v>
+      <c r="A23" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034431E-DE77-4A3C-A056-8E46D0C604C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD6A77-1F98-42E3-AA85-2130CAD9D8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1950" windowWidth="23040" windowHeight="9915" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -361,6 +361,9 @@
       </rPr>
       <t>) - grupos de media e IL</t>
     </r>
+  </si>
+  <si>
+    <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,9 +1246,14 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1285,7 +1293,9 @@
       <c r="A20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1304,9 @@
       <c r="A21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1315,9 @@
       <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="11" t="s">
         <v>34</v>
       </c>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Rio Verde\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD6A77-1F98-42E3-AA85-2130CAD9D8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="atividades realizadas" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -267,43 +266,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Teste </t>
+    <t>2010 - 2018</t>
+  </si>
+  <si>
+    <t>Tabela 7: Setor e IL</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 8: Relação de Governança (</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não paramétrico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ?</t>
-    </r>
-  </si>
-  <si>
-    <t>Teste não paramétrico ?</t>
-  </si>
-  <si>
-    <t>2010 - 2018</t>
-  </si>
-  <si>
-    <t>Tabela 7: Setor e IL</t>
-  </si>
-  <si>
-    <r>
-      <t>Tabela 8: Relação de Governança (</t>
+      </rPr>
+      <t>) e iL -</t>
     </r>
     <r>
       <rPr>
@@ -313,39 +302,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) e iL -</t>
+      <t xml:space="preserve"> Binária</t>
+    </r>
+  </si>
+  <si>
+    <t>Verificar se o indice de legibilidade das notas explicativas tem se alterado ao longo do tempo por assunto (23)</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 7: Relação de Extensão do disclousere (</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Binária</t>
-    </r>
-  </si>
-  <si>
-    <t>Verificar se o indice de legibilidade das notas explicativas tem se alterado ao longo do tempo por assunto (23)</t>
-  </si>
-  <si>
-    <r>
-      <t>Tabela 7: Relação de Extensão do disclousere (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -363,13 +333,22 @@
     </r>
   </si>
   <si>
-    <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )</t>
+    <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )   ( modelo aleatório)</t>
+  </si>
+  <si>
+    <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )  por setores - feito porem não foi significativo</t>
+  </si>
+  <si>
+    <t>Foi feito porem não foi inseridos os resultados no excel ainda</t>
+  </si>
+  <si>
+    <t>Vai ser complicado de fazer. Penso que não há necessidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -429,12 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,6 +418,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -550,16 +528,13 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -585,6 +560,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1051,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0432FDE9-4E55-4A72-ACC2-B6F60BDE75C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -1102,18 +1080,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02A19E-5BCC-4E4C-9CA1-E89BC29D0EF3}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1125,10 +1103,10 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1136,8 +1114,8 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1162,10 +1140,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1179,10 +1157,10 @@
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1190,7 +1168,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1201,7 +1179,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1212,10 +1190,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1223,10 +1201,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1234,10 +1212,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1245,96 +1223,113 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>38</v>
+      <c r="C24" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C92BC0-226C-4F24-A58F-5EC211BDFEC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Rio Verde\Documents\GitHub\teseLegibildiadeCPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0AB5D-08F4-49BC-9081-FCD1D5359084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="435" yWindow="195" windowWidth="27240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="atividades realizadas" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -119,9 +120,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Crosstable</t>
-  </si>
-  <si>
     <r>
       <t>Tabela 6: Relação de Tempo e listagem na B3 (</t>
     </r>
@@ -266,9 +264,6 @@
     </r>
   </si>
   <si>
-    <t>2010 - 2018</t>
-  </si>
-  <si>
     <t>Tabela 7: Setor e IL</t>
   </si>
   <si>
@@ -339,16 +334,28 @@
     <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )  por setores - feito porem não foi significativo</t>
   </si>
   <si>
-    <t>Foi feito porem não foi inseridos os resultados no excel ainda</t>
-  </si>
-  <si>
-    <t>Vai ser complicado de fazer. Penso que não há necessidade</t>
+    <t>não foi significativo</t>
+  </si>
+  <si>
+    <t>Estatística descritiva dos dados</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Melhor não realizar a contribuição será muito pequena</t>
+  </si>
+  <si>
+    <t>Efeito da curva de aprendizagem da legibilidade ( efeito no ano )</t>
+  </si>
+  <si>
+    <t>refatorar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -401,13 +408,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +426,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -442,19 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,36 +540,59 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -844,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1029,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -1080,18 +1109,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1114,14 +1143,14 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1140,47 +1169,48 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -1191,9 +1221,9 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1202,7 +1232,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>22</v>
@@ -1213,7 +1243,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>22</v>
@@ -1224,9 +1254,9 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1235,7 +1265,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
@@ -1245,82 +1275,128 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="B22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="B23" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>41</v>
       </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0AB5D-08F4-49BC-9081-FCD1D5359084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D306D0-726B-4A62-BB50-365A6FF42555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="195" windowWidth="27240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atividades " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -350,6 +350,52 @@
   </si>
   <si>
     <t>refatorar</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabela 11: Audit (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Audit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Binária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e índice de legibilidade</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabela 12: Tamanho (TAM ) -  e índice de legibilidade</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,32 +1417,48 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B27" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="C27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/atividades.xlsx
+++ b/atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D306D0-726B-4A62-BB50-365A6FF42555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA06D4A8-90F7-4450-808B-5ADB2AB48A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t xml:space="preserve">Entender a base de dados </t>
   </si>
@@ -264,9 +264,6 @@
     </r>
   </si>
   <si>
-    <t>Tabela 7: Setor e IL</t>
-  </si>
-  <si>
     <r>
       <t>Tabela 8: Relação de Governança (</t>
     </r>
@@ -334,24 +331,12 @@
     <t>Modelo de regressão com variáveis estudadas ( Modelo Geral )  por setores - feito porem não foi significativo</t>
   </si>
   <si>
-    <t>não foi significativo</t>
-  </si>
-  <si>
     <t>Estatística descritiva dos dados</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Melhor não realizar a contribuição será muito pequena</t>
-  </si>
-  <si>
     <t>Efeito da curva de aprendizagem da legibilidade ( efeito no ano )</t>
   </si>
   <si>
-    <t>refatorar</t>
-  </si>
-  <si>
     <r>
       <t>Tabela 11: Audit (</t>
     </r>
@@ -395,7 +380,31 @@
     </r>
   </si>
   <si>
-    <t>Tabela 12: Tamanho (TAM ) -  e índice de legibilidade</t>
+    <r>
+      <t>Tabela 12: Tamanho (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ) -  e índice de legibilidade ( separado pela mediana )</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilizar a regressão e teste de tendência</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,14 +481,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,12 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,30 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,13 +605,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1156,18 +1129,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="106.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1226,31 +1199,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1269,7 +1242,7 @@
       <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1280,7 +1253,7 @@
       <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1291,7 +1264,7 @@
       <c r="A13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1311,7 +1284,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
@@ -1322,7 +1295,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -1331,134 +1304,122 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
